--- a/tests/ManuscriptBatchFile.xlsx
+++ b/tests/ManuscriptBatchFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiacovin/Dropbox/Research/__Manuscripts in Progress/__VESIcal/__TheCode/VESIcal_master/VESIcal/manuscript/Supplement/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiacovin/Dropbox/Research/_Published_Papers/2021_VESIcal/__TheCode/VESIcal_master/VESIcal/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFCC9A7-6476-9647-9123-3184CDD46C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F151C27-97CB-AE44-A4D7-8E1255181258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="3640" windowWidth="33600" windowHeight="20540" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
+    <workbookView xWindow="0" yWindow="1860" windowWidth="33600" windowHeight="20540" xr2:uid="{286DCE04-AB12-484B-880B-42B53AAF1A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>SiO2</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>10*</t>
-  </si>
-  <si>
-    <t>19*</t>
   </si>
   <si>
     <t>Moore et al. (1998)</t>
@@ -249,25 +246,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -293,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEE8FDC-12AB-AC4E-AD7D-943540347F5B}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,7 +671,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>48.249207338872701</v>
@@ -865,7 +858,7 @@
         <v>1255.1537590171188</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -884,10 +877,10 @@
       <c r="F5">
         <v>18.77</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5">
@@ -899,10 +892,10 @@
       <c r="K5">
         <v>6.86</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5">
@@ -930,63 +923,63 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6">
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>49.64</v>
+        <v>50.32</v>
       </c>
       <c r="E6">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+        <v>18.03</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.54</v>
+        <v>10.11</v>
       </c>
       <c r="J6">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.09</v>
+        <v>12.78</v>
       </c>
       <c r="O6">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="Q6">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="R6">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="S6">
-        <v>0.1113</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="T6">
         <v>2000</v>
@@ -995,79 +988,69 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>50.32</v>
+        <v>62.6</v>
       </c>
       <c r="E7">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
+        <v>17.3</v>
+      </c>
+      <c r="G7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7">
-        <v>10.11</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J7">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N7">
-        <v>12.78</v>
+        <v>5.64</v>
       </c>
       <c r="O7">
-        <v>1.8</v>
+        <v>4.05</v>
       </c>
       <c r="P7">
+        <v>1.61</v>
+      </c>
+      <c r="Q7">
         <v>0.24</v>
       </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
       <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>4.3700000000000003E-2</v>
-      </c>
+        <v>2.62</v>
+      </c>
+      <c r="S7" s="3"/>
       <c r="T7">
-        <v>2000</v>
+        <v>703</v>
       </c>
       <c r="U7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D8">
@@ -1082,7 +1065,7 @@
       <c r="G8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8">
         <v>2.0099999999999998</v>
       </c>
@@ -1105,24 +1088,24 @@
         <v>0.24</v>
       </c>
       <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8" s="4"/>
+        <v>5.03</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8">
-        <v>703</v>
+        <v>1865</v>
       </c>
       <c r="U8">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D9">
@@ -1137,7 +1120,7 @@
       <c r="G9">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
       <c r="I9">
         <v>2.0099999999999998</v>
       </c>
@@ -1160,116 +1143,114 @@
         <v>0.24</v>
       </c>
       <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9" s="4"/>
+        <v>6.76</v>
+      </c>
+      <c r="S9" s="3"/>
       <c r="T9">
-        <v>1865</v>
+        <v>2985</v>
       </c>
       <c r="U9">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>62.6</v>
+        <v>76.974879743452703</v>
       </c>
       <c r="E10">
-        <v>0.63</v>
+        <v>8.5515766969535001E-2</v>
       </c>
       <c r="F10">
-        <v>17.3</v>
-      </c>
-      <c r="G10">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>3.11063602351684</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J10">
-        <v>0.06</v>
-      </c>
+        <v>4.7888829502939601</v>
+      </c>
+      <c r="J10" s="2"/>
       <c r="K10">
-        <v>2.65</v>
-      </c>
+        <v>12.549438802779299</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10">
-        <v>5.64</v>
+        <v>1.20791020844468</v>
       </c>
       <c r="O10">
-        <v>4.05</v>
+        <v>0.13896312132549399</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
-      </c>
-      <c r="Q10">
-        <v>0.24</v>
-      </c>
+        <v>1.1330839123463401</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10" s="4"/>
+        <v>4.34</v>
+      </c>
+      <c r="S10">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="T10">
-        <v>2985</v>
+        <v>300</v>
       </c>
       <c r="U10">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
       </c>
       <c r="D11">
-        <v>76.974879743452703</v>
+        <v>76.943844870107199</v>
       </c>
       <c r="E11">
-        <v>8.5515766969535001E-2</v>
+        <v>0.133124692583271</v>
       </c>
       <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>3.1696568026809402</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11">
-        <v>4.7888829502939601</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>4.7634353283439301</v>
+      </c>
+      <c r="J11" s="2"/>
       <c r="K11">
-        <v>12.549438802779299</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>12.4464028247851</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11">
-        <v>1.20791020844468</v>
+        <v>1.2317275692990299</v>
       </c>
       <c r="O11">
-        <v>0.13896312132549399</v>
+        <v>0.14099337717701599</v>
       </c>
       <c r="P11">
-        <v>1.1330839123463401</v>
-      </c>
-      <c r="Q11" s="3"/>
+        <v>1.1708064645776799</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11">
-        <v>4.34</v>
+        <v>5.85</v>
       </c>
       <c r="S11">
-        <v>7.0000000000000001E-3</v>
+        <v>1.23E-2</v>
       </c>
       <c r="T11">
         <v>300</v>
@@ -1278,51 +1259,51 @@
         <v>900</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>76.943844870107199</v>
+        <v>77.187204822776394</v>
       </c>
       <c r="E12">
-        <v>0.133124692583271</v>
+        <v>0.119505939828248</v>
       </c>
       <c r="F12">
-        <v>3.1696568026809402</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>3.1678273440328302</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12">
-        <v>4.7634353283439301</v>
-      </c>
-      <c r="J12" s="3"/>
+        <v>4.8140762697086501</v>
+      </c>
+      <c r="J12" s="2"/>
       <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>12.2295344248926</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12">
-        <v>1.2317275692990299</v>
+        <v>1.1847733013638</v>
       </c>
       <c r="O12">
-        <v>0.14099337717701599</v>
+        <v>0.13820113616826599</v>
       </c>
       <c r="P12">
-        <v>1.1708064645776799</v>
-      </c>
-      <c r="Q12" s="3"/>
+        <v>1.15892356512203</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12">
-        <v>5.85</v>
+        <v>5.7545705764357997</v>
       </c>
       <c r="S12">
-        <v>1.23E-2</v>
+        <v>1.06631828985553E-2</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -1331,343 +1312,290 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>77.187204822776394</v>
+        <v>75.413965938011899</v>
       </c>
       <c r="E13">
-        <v>0.119505939828248</v>
+        <v>9.5164118183489493E-2</v>
       </c>
       <c r="F13">
-        <v>3.1678273440328302</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+        <v>14.0776920173468</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13">
-        <v>4.8140762697086501</v>
-      </c>
-      <c r="J13" s="3"/>
+        <v>0.65499169305712601</v>
+      </c>
+      <c r="J13">
+        <v>0.12588245159136099</v>
+      </c>
       <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>1.2003492622244601E-2</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13">
-        <v>1.1847733013638</v>
+        <v>0.63612368779296302</v>
       </c>
       <c r="O13">
-        <v>0.13820113616826599</v>
+        <v>3.7031102607779598</v>
       </c>
       <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13" s="3"/>
+        <v>5.1283916007609598</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
       <c r="R13">
-        <v>5.7545705764357997</v>
+        <v>5.9437499999999996</v>
       </c>
       <c r="S13">
-        <v>1.06631828985553E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T13">
         <v>300</v>
       </c>
-      <c r="U13">
-        <v>900</v>
-      </c>
     </row>
     <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14">
-        <v>75.413965938011899</v>
+        <v>76.613585704740004</v>
       </c>
       <c r="E14">
-        <v>9.5164118183489493E-2</v>
+        <v>9.5843209537695803E-2</v>
       </c>
       <c r="F14">
-        <v>14.0776920173468</v>
+        <v>13.4767620639456</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14">
-        <v>0.65499169305712601</v>
+        <v>0.62076852860971599</v>
       </c>
       <c r="J14">
-        <v>0.12588245159136099</v>
+        <v>0.11349507021006899</v>
       </c>
       <c r="K14">
-        <v>1.2003492622244601E-2</v>
+        <v>3.2069005669040397E-2</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14">
-        <v>0.63612368779296302</v>
+        <v>0.62435006079412803</v>
       </c>
       <c r="O14">
-        <v>3.7031102607779598</v>
+        <v>3.6769719537635002</v>
       </c>
       <c r="P14">
-        <v>5.1283916007609598</v>
+        <v>4.5797993772453101</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>5.9437499999999996</v>
+        <v>5.34</v>
       </c>
       <c r="S14">
-        <v>0.01</v>
-      </c>
-      <c r="T14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U14">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>76.613585704740004</v>
-      </c>
-      <c r="E15">
-        <v>9.5843209537695803E-2</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15">
-        <v>0.62076852860971599</v>
-      </c>
-      <c r="J15">
-        <v>0.11349507021006899</v>
-      </c>
-      <c r="K15">
-        <v>3.2069005669040397E-2</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15">
-        <v>0.62435006079412803</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635002</v>
-      </c>
-      <c r="P15">
-        <v>4.5797993772453101</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7">
+        <v>48.03</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.84</v>
+      </c>
+      <c r="F15" s="7">
+        <v>18.12</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="7">
+        <v>7.57</v>
+      </c>
+      <c r="O15" s="7">
+        <v>6.04</v>
+      </c>
+      <c r="P15" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1.41</v>
       </c>
       <c r="R15">
-        <v>5.34</v>
+        <v>1.42</v>
       </c>
       <c r="S15">
-        <v>8.0000000000000002E-3</v>
+        <v>0.1298</v>
+      </c>
+      <c r="T15">
+        <v>1500</v>
       </c>
       <c r="U15">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9">
-        <v>48.03</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2.84</v>
-      </c>
-      <c r="F16" s="9">
-        <v>18.12</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="J16" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="K16" s="9">
-        <v>3.08</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="9">
-        <v>7.57</v>
-      </c>
-      <c r="O16" s="9">
-        <v>6.04</v>
-      </c>
-      <c r="P16" s="9">
-        <v>3.08</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>1.41</v>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>52.98</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20.49</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7">
+        <v>5.54</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>5.68</v>
+      </c>
+      <c r="P16" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0.66</v>
       </c>
       <c r="R16">
-        <v>1.42</v>
+        <v>4.76</v>
       </c>
       <c r="S16">
-        <v>0.1298</v>
+        <v>0.34389999999999998</v>
       </c>
       <c r="T16">
+        <v>4000</v>
+      </c>
+      <c r="U16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44.61</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="F17" s="7">
+        <v>14.41</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7">
+        <v>10.6</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="K17" s="7">
+        <v>7.69</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7">
+        <v>11.55</v>
+      </c>
+      <c r="O17" s="7">
+        <v>3.93</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1.74</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="R17">
+        <v>2.9</v>
+      </c>
+      <c r="S17">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="T17">
         <v>1500</v>
       </c>
-      <c r="U16">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9">
-        <v>52.98</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F17" s="9">
-        <v>20.49</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="9">
-        <v>5.54</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="9">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="O17" s="9">
-        <v>5.68</v>
-      </c>
-      <c r="P17" s="9">
-        <v>3.16</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.34389999999999998</v>
-      </c>
-      <c r="T17">
-        <v>4000</v>
-      </c>
       <c r="U17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9">
-        <v>44.61</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4.37</v>
-      </c>
-      <c r="F18" s="9">
-        <v>14.41</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="9">
-        <v>10.6</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="K18" s="9">
-        <v>7.69</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="9">
-        <v>11.55</v>
-      </c>
-      <c r="O18" s="9">
-        <v>3.93</v>
-      </c>
-      <c r="P18" s="9">
-        <v>1.74</v>
-      </c>
-      <c r="Q18" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.11310000000000001</v>
-      </c>
-      <c r="T18">
-        <v>1500</v>
-      </c>
-      <c r="U18">
         <v>1100</v>
       </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R20"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="R21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1690,23 +1618,23 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
+      <c r="A2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
+      <c r="A3" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
